--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_36ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -1877,28 +1877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>243.9474790976435</v>
+        <v>295.934559265979</v>
       </c>
       <c r="AB2" t="n">
-        <v>333.7797031044591</v>
+        <v>404.9107196990425</v>
       </c>
       <c r="AC2" t="n">
-        <v>301.9242367030245</v>
+        <v>366.2666089067295</v>
       </c>
       <c r="AD2" t="n">
-        <v>243947.4790976435</v>
+        <v>295934.559265979</v>
       </c>
       <c r="AE2" t="n">
-        <v>333779.7031044592</v>
+        <v>404910.7196990425</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.307395636081811e-06</v>
+        <v>3.900766807002159e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.780864197530866</v>
       </c>
       <c r="AH2" t="n">
-        <v>301924.2367030245</v>
+        <v>366266.6089067294</v>
       </c>
     </row>
     <row r="3">
@@ -1983,28 +1983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>155.5308765425729</v>
+        <v>186.6890778102944</v>
       </c>
       <c r="AB3" t="n">
-        <v>212.8042068234626</v>
+        <v>255.4362324007631</v>
       </c>
       <c r="AC3" t="n">
-        <v>192.4944719968723</v>
+        <v>231.0577568875125</v>
       </c>
       <c r="AD3" t="n">
-        <v>155530.8765425729</v>
+        <v>186689.0778102943</v>
       </c>
       <c r="AE3" t="n">
-        <v>212804.2068234626</v>
+        <v>255436.2324007631</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.179831195580867e-06</v>
+        <v>5.375662407273465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.373456790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>192494.4719968723</v>
+        <v>231057.7568875125</v>
       </c>
     </row>
     <row r="4">
@@ -2089,28 +2089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.0879239690469</v>
+        <v>161.331376582789</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.9920366485339</v>
+        <v>220.7407068784836</v>
       </c>
       <c r="AC4" t="n">
-        <v>161.00472648424</v>
+        <v>199.6735236255925</v>
       </c>
       <c r="AD4" t="n">
-        <v>130087.9239690469</v>
+        <v>161331.376582789</v>
       </c>
       <c r="AE4" t="n">
-        <v>177992.0366485339</v>
+        <v>220740.7068784836</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.441530352394243e-06</v>
+        <v>5.818077816384464e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.887345679012346</v>
       </c>
       <c r="AH4" t="n">
-        <v>161004.72648424</v>
+        <v>199673.5236255925</v>
       </c>
     </row>
     <row r="5">
@@ -2195,28 +2195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>130.4502964402511</v>
+        <v>161.6937490539931</v>
       </c>
       <c r="AB5" t="n">
-        <v>178.4878506503803</v>
+        <v>221.23652088033</v>
       </c>
       <c r="AC5" t="n">
-        <v>161.4532206936296</v>
+        <v>200.1220178349821</v>
       </c>
       <c r="AD5" t="n">
-        <v>130450.2964402511</v>
+        <v>161693.7490539931</v>
       </c>
       <c r="AE5" t="n">
-        <v>178487.8506503803</v>
+        <v>221236.52088033</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.439954800577184e-06</v>
+        <v>5.81541426786483e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.891203703703704</v>
       </c>
       <c r="AH5" t="n">
-        <v>161453.2206936296</v>
+        <v>200122.0178349821</v>
       </c>
     </row>
   </sheetData>
@@ -2492,28 +2492,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.1345261734187</v>
+        <v>228.4967975488586</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.41395861987</v>
+        <v>312.6393989734598</v>
       </c>
       <c r="AC2" t="n">
-        <v>232.8467316920247</v>
+        <v>282.8015335276778</v>
       </c>
       <c r="AD2" t="n">
-        <v>188134.5261734186</v>
+        <v>228496.7975488586</v>
       </c>
       <c r="AE2" t="n">
-        <v>257413.95861987</v>
+        <v>312639.3989734598</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.738480650999099e-06</v>
+        <v>4.742476165566691e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65432098765432</v>
       </c>
       <c r="AH2" t="n">
-        <v>232846.7316920247</v>
+        <v>282801.5335276778</v>
       </c>
     </row>
     <row r="3">
@@ -2598,28 +2598,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.4570061678382</v>
+        <v>163.648595834135</v>
       </c>
       <c r="AB3" t="n">
-        <v>168.9193223774774</v>
+        <v>223.911228486672</v>
       </c>
       <c r="AC3" t="n">
-        <v>152.7978993295758</v>
+        <v>202.5414551013514</v>
       </c>
       <c r="AD3" t="n">
-        <v>123457.0061678382</v>
+        <v>163648.595834135</v>
       </c>
       <c r="AE3" t="n">
-        <v>168919.3223774774</v>
+        <v>223911.228486672</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.526693671229135e-06</v>
+        <v>6.107496385982156e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.945216049382717</v>
       </c>
       <c r="AH3" t="n">
-        <v>152797.8993295758</v>
+        <v>202541.4551013514</v>
       </c>
     </row>
     <row r="4">
@@ -2704,28 +2704,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.1682709022159</v>
+        <v>153.4399744337958</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.5242620489522</v>
+        <v>209.9433423141446</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.4405430043343</v>
+        <v>189.9066443810742</v>
       </c>
       <c r="AD4" t="n">
-        <v>123168.2709022159</v>
+        <v>153439.9744337958</v>
       </c>
       <c r="AE4" t="n">
-        <v>168524.2620489522</v>
+        <v>209943.3423141446</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.543209852518763e-06</v>
+        <v>6.136098960217495e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.914351851851852</v>
       </c>
       <c r="AH4" t="n">
-        <v>152440.5430043343</v>
+        <v>189906.6443810741</v>
       </c>
     </row>
   </sheetData>
@@ -3001,28 +3001,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.4752826395404</v>
+        <v>143.7361281316656</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.3666202341616</v>
+        <v>196.6661117000918</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.1568936715133</v>
+        <v>177.8965740221122</v>
       </c>
       <c r="AD2" t="n">
-        <v>116475.2826395404</v>
+        <v>143736.1281316656</v>
       </c>
       <c r="AE2" t="n">
-        <v>159366.6202341616</v>
+        <v>196666.1117000919</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.64203878425705e-06</v>
+        <v>6.891521109118897e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>144156.8936715133</v>
+        <v>177896.5740221122</v>
       </c>
     </row>
   </sheetData>
@@ -3298,28 +3298,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.427301934705</v>
+        <v>152.8319429256015</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.2469238521321</v>
+        <v>209.1114067801765</v>
       </c>
       <c r="AC2" t="n">
-        <v>153.9987963827902</v>
+        <v>189.1541076068389</v>
       </c>
       <c r="AD2" t="n">
-        <v>124427.301934705</v>
+        <v>152831.9429256014</v>
       </c>
       <c r="AE2" t="n">
-        <v>170246.9238521321</v>
+        <v>209111.4067801765</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.582063737492808e-06</v>
+        <v>6.525742195807496e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.246141975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>153998.7963827902</v>
+        <v>189154.1076068389</v>
       </c>
     </row>
     <row r="3">
@@ -3404,28 +3404,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>122.0320586873446</v>
+        <v>150.436699678241</v>
       </c>
       <c r="AB3" t="n">
-        <v>166.9696463704209</v>
+        <v>205.8341292984653</v>
       </c>
       <c r="AC3" t="n">
-        <v>151.0342976642447</v>
+        <v>186.1896088882933</v>
       </c>
       <c r="AD3" t="n">
-        <v>122032.0586873446</v>
+        <v>150436.699678241</v>
       </c>
       <c r="AE3" t="n">
-        <v>166969.6463704209</v>
+        <v>205834.1292984653</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.656183800580997e-06</v>
+        <v>6.660772853745776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>151034.2976642447</v>
+        <v>186189.6088882933</v>
       </c>
     </row>
   </sheetData>
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>114.2625692664596</v>
+        <v>149.3878282801568</v>
       </c>
       <c r="AB2" t="n">
-        <v>156.3390881790894</v>
+        <v>204.399017178667</v>
       </c>
       <c r="AC2" t="n">
-        <v>141.4183050266084</v>
+        <v>184.8914618550155</v>
       </c>
       <c r="AD2" t="n">
-        <v>114262.5692664596</v>
+        <v>149387.8282801568</v>
       </c>
       <c r="AE2" t="n">
-        <v>156339.0881790894</v>
+        <v>204399.017178667</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.522526638008981e-06</v>
+        <v>6.903017250767458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.89429012345679</v>
       </c>
       <c r="AH2" t="n">
-        <v>141418.3050266083</v>
+        <v>184891.4618550155</v>
       </c>
     </row>
   </sheetData>
@@ -3998,28 +3998,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.8532213054533</v>
+        <v>249.5610720463898</v>
       </c>
       <c r="AB2" t="n">
-        <v>272.0797501749678</v>
+        <v>341.4604686311724</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.1128406846764</v>
+        <v>308.8719607478928</v>
       </c>
       <c r="AD2" t="n">
-        <v>198853.2213054533</v>
+        <v>249561.0720463898</v>
       </c>
       <c r="AE2" t="n">
-        <v>272079.7501749678</v>
+        <v>341460.4686311724</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.619443075459809e-06</v>
+        <v>4.506702584892718e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.928240740740741</v>
       </c>
       <c r="AH2" t="n">
-        <v>246112.8406846764</v>
+        <v>308871.9607478928</v>
       </c>
     </row>
     <row r="3">
@@ -4104,28 +4104,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.2846759000527</v>
+        <v>168.7265440240799</v>
       </c>
       <c r="AB3" t="n">
-        <v>189.207194255704</v>
+        <v>230.8591012234147</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.1495251899579</v>
+        <v>208.8262326155021</v>
       </c>
       <c r="AD3" t="n">
-        <v>138284.6759000527</v>
+        <v>168726.5440240799</v>
       </c>
       <c r="AE3" t="n">
-        <v>189207.194255704</v>
+        <v>230859.1012234146</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.446933170766007e-06</v>
+        <v>5.930383743085072e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.026234567901234</v>
       </c>
       <c r="AH3" t="n">
-        <v>171149.5251899579</v>
+        <v>208826.2326155021</v>
       </c>
     </row>
     <row r="4">
@@ -4210,28 +4210,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.3778504504896</v>
+        <v>154.9049699205375</v>
       </c>
       <c r="AB4" t="n">
-        <v>170.1792621497831</v>
+        <v>211.947813770143</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.9375922183496</v>
+        <v>191.719811894606</v>
       </c>
       <c r="AD4" t="n">
-        <v>124377.8504504896</v>
+        <v>154904.9699205375</v>
       </c>
       <c r="AE4" t="n">
-        <v>170179.2621497831</v>
+        <v>211947.813770143</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.527426221223601e-06</v>
+        <v>6.068870523714753e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.887345679012346</v>
       </c>
       <c r="AH4" t="n">
-        <v>153937.5922183496</v>
+        <v>191719.811894606</v>
       </c>
     </row>
   </sheetData>
@@ -4507,28 +4507,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.0815776091405</v>
+        <v>156.380887340233</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.0374003438428</v>
+        <v>213.9672290966505</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.0955852935365</v>
+        <v>193.5464970566195</v>
       </c>
       <c r="AD2" t="n">
-        <v>122081.5776091405</v>
+        <v>156380.887340233</v>
       </c>
       <c r="AE2" t="n">
-        <v>167037.4003438428</v>
+        <v>213967.2290966505</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.409715565955713e-06</v>
+        <v>6.835321690568567e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.291666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>151095.5852935365</v>
+        <v>193546.4970566195</v>
       </c>
     </row>
   </sheetData>
@@ -4804,28 +4804,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>149.4638153431848</v>
+        <v>188.6354814658725</v>
       </c>
       <c r="AB2" t="n">
-        <v>204.5029860306145</v>
+        <v>258.0993877515928</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.9855080656544</v>
+        <v>233.4667444294219</v>
       </c>
       <c r="AD2" t="n">
-        <v>149463.8153431848</v>
+        <v>188635.4814658725</v>
       </c>
       <c r="AE2" t="n">
-        <v>204502.9860306145</v>
+        <v>258099.3877515927</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.129744942416603e-06</v>
+        <v>5.543010854663865e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.902006172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>184985.5080656544</v>
+        <v>233466.7444294218</v>
       </c>
     </row>
     <row r="3">
@@ -4910,28 +4910,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.7058053213746</v>
+        <v>156.7921305894906</v>
       </c>
       <c r="AB3" t="n">
-        <v>161.0502756542755</v>
+        <v>214.5299102530562</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.6798633813574</v>
+        <v>194.055476713186</v>
       </c>
       <c r="AD3" t="n">
-        <v>117705.8053213746</v>
+        <v>156792.1305894906</v>
       </c>
       <c r="AE3" t="n">
-        <v>161050.2756542755</v>
+        <v>214529.9102530562</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.602800360007866e-06</v>
+        <v>6.380827150499541e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.99537037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>145679.8633813574</v>
+        <v>194055.476713186</v>
       </c>
     </row>
   </sheetData>
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.5460316507203</v>
+        <v>218.3842062254301</v>
       </c>
       <c r="AB2" t="n">
-        <v>244.2945573993973</v>
+        <v>298.8029053887094</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.9794277108344</v>
+        <v>270.2855754710109</v>
       </c>
       <c r="AD2" t="n">
-        <v>178546.0316507203</v>
+        <v>218384.2062254301</v>
       </c>
       <c r="AE2" t="n">
-        <v>244294.5573993973</v>
+        <v>298802.9053887094</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.85580975830418e-06</v>
+        <v>4.980282851446597e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.407407407407408</v>
       </c>
       <c r="AH2" t="n">
-        <v>220979.4277108344</v>
+        <v>270285.5754710109</v>
       </c>
     </row>
     <row r="3">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.6374277730008</v>
+        <v>150.6440028544773</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.061450826643</v>
+        <v>206.1177706497623</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.3082176249951</v>
+        <v>186.4461799071157</v>
       </c>
       <c r="AD3" t="n">
-        <v>120637.4277730008</v>
+        <v>150644.0028544773</v>
       </c>
       <c r="AE3" t="n">
-        <v>165061.450826643</v>
+        <v>206117.7706497624</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.573573966234405e-06</v>
+        <v>6.232000955477356e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.922067901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>149308.2176249951</v>
+        <v>186446.1799071158</v>
       </c>
     </row>
     <row r="4">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>121.1093624928912</v>
+        <v>151.1159375743677</v>
       </c>
       <c r="AB4" t="n">
-        <v>165.7071727306871</v>
+        <v>206.7634925538065</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.8923127367939</v>
+        <v>187.0302750189145</v>
       </c>
       <c r="AD4" t="n">
-        <v>121109.3624928911</v>
+        <v>151115.9375743677</v>
       </c>
       <c r="AE4" t="n">
-        <v>165707.1727306872</v>
+        <v>206763.4925538065</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.570502613315929e-06</v>
+        <v>6.226644784175627e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.925925925925926</v>
       </c>
       <c r="AH4" t="n">
-        <v>149892.3127367939</v>
+        <v>187030.2750189145</v>
       </c>
     </row>
   </sheetData>
@@ -5716,28 +5716,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>231.8669952238832</v>
+        <v>273.1314451732629</v>
       </c>
       <c r="AB2" t="n">
-        <v>317.2506521150541</v>
+        <v>373.7104929949946</v>
       </c>
       <c r="AC2" t="n">
-        <v>286.9726951413742</v>
+        <v>338.0440880495227</v>
       </c>
       <c r="AD2" t="n">
-        <v>231866.9952238832</v>
+        <v>273131.4451732629</v>
       </c>
       <c r="AE2" t="n">
-        <v>317250.6521150541</v>
+        <v>373710.4929949946</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.405142504849133e-06</v>
+        <v>4.088582854107893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.491512345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>286972.6951413742</v>
+        <v>338044.0880495227</v>
       </c>
     </row>
     <row r="3">
@@ -5822,28 +5822,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>149.2028180879875</v>
+        <v>180.1298427135146</v>
       </c>
       <c r="AB3" t="n">
-        <v>204.1458780716675</v>
+        <v>246.461597568324</v>
       </c>
       <c r="AC3" t="n">
-        <v>184.662481989105</v>
+        <v>222.9396486074995</v>
       </c>
       <c r="AD3" t="n">
-        <v>149202.8180879875</v>
+        <v>180129.8427135146</v>
       </c>
       <c r="AE3" t="n">
-        <v>204145.8780716675</v>
+        <v>246461.597568324</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.27401763816828e-06</v>
+        <v>5.565612994853009e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH3" t="n">
-        <v>184662.481989105</v>
+        <v>222939.6486074995</v>
       </c>
     </row>
     <row r="4">
@@ -5928,28 +5928,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.0949971824436</v>
+        <v>159.1072731539912</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.2652262973799</v>
+        <v>217.6975904466858</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.538159085897</v>
+        <v>196.9208379550037</v>
       </c>
       <c r="AD4" t="n">
-        <v>128094.9971824436</v>
+        <v>159107.2731539912</v>
       </c>
       <c r="AE4" t="n">
-        <v>175265.2262973799</v>
+        <v>217697.5904466858</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.470206710493922e-06</v>
+        <v>5.899121415105334e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.887345679012346</v>
       </c>
       <c r="AH4" t="n">
-        <v>158538.159085897</v>
+        <v>196920.8379550037</v>
       </c>
     </row>
   </sheetData>
@@ -6225,28 +6225,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>132.4904152553561</v>
+        <v>161.2296029927971</v>
       </c>
       <c r="AB2" t="n">
-        <v>181.2792312168956</v>
+        <v>220.6014557627229</v>
       </c>
       <c r="AC2" t="n">
-        <v>163.9781958166049</v>
+        <v>199.5475624408797</v>
       </c>
       <c r="AD2" t="n">
-        <v>132490.4152553561</v>
+        <v>161229.6029927971</v>
       </c>
       <c r="AE2" t="n">
-        <v>181279.2312168956</v>
+        <v>220601.4557627229</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.421888844851804e-06</v>
+        <v>6.170475342847178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.458333333333332</v>
       </c>
       <c r="AH2" t="n">
-        <v>163978.1958166049</v>
+        <v>199547.5624408797</v>
       </c>
     </row>
     <row r="3">
@@ -6331,28 +6331,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>123.6721498634129</v>
+        <v>152.4113376008539</v>
       </c>
       <c r="AB3" t="n">
-        <v>169.2136914732326</v>
+        <v>208.5359160190599</v>
       </c>
       <c r="AC3" t="n">
-        <v>153.0641742519818</v>
+        <v>188.6335408762567</v>
       </c>
       <c r="AD3" t="n">
-        <v>123672.1498634129</v>
+        <v>152411.3376008539</v>
       </c>
       <c r="AE3" t="n">
-        <v>169213.6914732326</v>
+        <v>208535.9160190599</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.648854074263973e-06</v>
+        <v>6.579747360516149e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.057098765432098</v>
       </c>
       <c r="AH3" t="n">
-        <v>153064.1742519818</v>
+        <v>188633.5408762567</v>
       </c>
     </row>
   </sheetData>
@@ -6628,28 +6628,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.4337764864307</v>
+        <v>146.1036866388385</v>
       </c>
       <c r="AB2" t="n">
-        <v>162.046317918126</v>
+        <v>199.9055096989138</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.5808447695003</v>
+        <v>180.8268084224513</v>
       </c>
       <c r="AD2" t="n">
-        <v>118433.7764864307</v>
+        <v>146103.6866388385</v>
       </c>
       <c r="AE2" t="n">
-        <v>162046.317918126</v>
+        <v>199905.5096989138</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.652289651798833e-06</v>
+        <v>6.814005062392753e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.300154320987654</v>
       </c>
       <c r="AH2" t="n">
-        <v>146580.8447695003</v>
+        <v>180826.8084224513</v>
       </c>
     </row>
   </sheetData>
@@ -10994,28 +10994,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.2283033643467</v>
+        <v>151.0102530957454</v>
       </c>
       <c r="AB2" t="n">
-        <v>157.6604481769994</v>
+        <v>206.6188903876855</v>
       </c>
       <c r="AC2" t="n">
-        <v>142.6135562808586</v>
+        <v>186.8994734805776</v>
       </c>
       <c r="AD2" t="n">
-        <v>115228.3033643467</v>
+        <v>151010.2530957454</v>
       </c>
       <c r="AE2" t="n">
-        <v>157660.4481769993</v>
+        <v>206618.8903876855</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.599898632915836e-06</v>
+        <v>6.92273856832602e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.612654320987655</v>
       </c>
       <c r="AH2" t="n">
-        <v>142613.5562808586</v>
+        <v>186899.4734805776</v>
       </c>
     </row>
   </sheetData>
@@ -11291,28 +11291,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>130.7414501944266</v>
+        <v>164.264465848816</v>
       </c>
       <c r="AB2" t="n">
-        <v>178.8862200616401</v>
+        <v>224.7538890110258</v>
       </c>
       <c r="AC2" t="n">
-        <v>161.8135702873939</v>
+        <v>203.3036932879426</v>
       </c>
       <c r="AD2" t="n">
-        <v>130741.4501944266</v>
+        <v>164264.465848816</v>
       </c>
       <c r="AE2" t="n">
-        <v>178886.2200616401</v>
+        <v>224753.8890110258</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189830273824434e-06</v>
+        <v>6.579341758052608e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.00925925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>161813.5702873939</v>
+        <v>203303.6932879426</v>
       </c>
     </row>
   </sheetData>
@@ -11588,28 +11588,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.9365497911829</v>
+        <v>198.6673172102956</v>
       </c>
       <c r="AB2" t="n">
-        <v>231.1464403787653</v>
+        <v>271.8253879904634</v>
       </c>
       <c r="AC2" t="n">
-        <v>209.0861485251492</v>
+        <v>245.8827544700614</v>
       </c>
       <c r="AD2" t="n">
-        <v>168936.5497911829</v>
+        <v>198667.3172102956</v>
       </c>
       <c r="AE2" t="n">
-        <v>231146.4403787653</v>
+        <v>271825.3879904634</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.985743728720984e-06</v>
+        <v>5.245833950413779e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.156635802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>209086.1485251492</v>
+        <v>245882.7544700614</v>
       </c>
     </row>
     <row r="3">
@@ -11694,28 +11694,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>119.0786688346044</v>
+        <v>158.5488910062101</v>
       </c>
       <c r="AB3" t="n">
-        <v>162.9286880795392</v>
+        <v>216.9335873580103</v>
       </c>
       <c r="AC3" t="n">
-        <v>147.3790027611229</v>
+        <v>196.2297502488261</v>
       </c>
       <c r="AD3" t="n">
-        <v>119078.6688346044</v>
+        <v>158548.8910062101</v>
       </c>
       <c r="AE3" t="n">
-        <v>162928.6880795392</v>
+        <v>216933.5873580103</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.594292375382989e-06</v>
+        <v>6.315029916708388e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.945216049382717</v>
       </c>
       <c r="AH3" t="n">
-        <v>147379.0027611229</v>
+        <v>196229.7502488261</v>
       </c>
     </row>
   </sheetData>
@@ -11991,28 +11991,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.2791763370995</v>
+        <v>261.2255520807438</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.3956870956753</v>
+        <v>357.4203248148771</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.6309057308566</v>
+        <v>323.308630657121</v>
       </c>
       <c r="AD2" t="n">
-        <v>220279.1763370995</v>
+        <v>261225.5520807438</v>
       </c>
       <c r="AE2" t="n">
-        <v>301395.6870956753</v>
+        <v>357420.3248148771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.508578723643966e-06</v>
+        <v>4.289390055408864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.209876543209878</v>
       </c>
       <c r="AH2" t="n">
-        <v>272630.9057308566</v>
+        <v>323308.630657121</v>
       </c>
     </row>
     <row r="3">
@@ -12097,28 +12097,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.4789520911322</v>
+        <v>175.1674210623579</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.6824762125138</v>
+        <v>239.6717933386226</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.8159381319454</v>
+        <v>216.7978537639285</v>
       </c>
       <c r="AD3" t="n">
-        <v>144478.9520911322</v>
+        <v>175167.4210623579</v>
       </c>
       <c r="AE3" t="n">
-        <v>197682.4762125137</v>
+        <v>239671.7933386226</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.345020731463801e-06</v>
+        <v>5.719612673679714e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH3" t="n">
-        <v>178815.9381319454</v>
+        <v>216797.8537639285</v>
       </c>
     </row>
     <row r="4">
@@ -12203,28 +12203,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>126.0455928246272</v>
+        <v>156.8193131418735</v>
       </c>
       <c r="AB4" t="n">
-        <v>172.4611408416778</v>
+        <v>214.5671026204359</v>
       </c>
       <c r="AC4" t="n">
-        <v>156.0016916105275</v>
+        <v>194.0891194932229</v>
       </c>
       <c r="AD4" t="n">
-        <v>126045.5928246272</v>
+        <v>156819.3131418735</v>
       </c>
       <c r="AE4" t="n">
-        <v>172461.1408416778</v>
+        <v>214567.1026204359</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.504302349289862e-06</v>
+        <v>5.991966489437227e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.875771604938272</v>
       </c>
       <c r="AH4" t="n">
-        <v>156001.6916105275</v>
+        <v>194089.1194932229</v>
       </c>
     </row>
   </sheetData>
@@ -12500,28 +12500,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>142.0181015231539</v>
+        <v>182.7077438568896</v>
       </c>
       <c r="AB2" t="n">
-        <v>194.3154319003426</v>
+        <v>249.9887956416598</v>
       </c>
       <c r="AC2" t="n">
-        <v>175.7702398032504</v>
+        <v>226.1302158471708</v>
       </c>
       <c r="AD2" t="n">
-        <v>142018.1015231539</v>
+        <v>182707.7438568896</v>
       </c>
       <c r="AE2" t="n">
-        <v>194315.4319003426</v>
+        <v>249988.7956416598</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.749431409448849e-06</v>
+        <v>5.8932978723304e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.625771604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>175770.2398032504</v>
+        <v>226130.2158471708</v>
       </c>
     </row>
   </sheetData>
@@ -12797,28 +12797,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>120.3803536230243</v>
+        <v>148.4298342022416</v>
       </c>
       <c r="AB2" t="n">
-        <v>164.7097106333344</v>
+        <v>203.088247417548</v>
       </c>
       <c r="AC2" t="n">
-        <v>148.9900470220653</v>
+        <v>183.7057901202205</v>
       </c>
       <c r="AD2" t="n">
-        <v>120380.3536230243</v>
+        <v>148429.8342022416</v>
       </c>
       <c r="AE2" t="n">
-        <v>164709.7106333344</v>
+        <v>203088.2474175481</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.646907877610744e-06</v>
+        <v>6.719181726237211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.219135802469136</v>
       </c>
       <c r="AH2" t="n">
-        <v>148990.0470220653</v>
+        <v>183705.7901202205</v>
       </c>
     </row>
     <row r="3">
@@ -12903,28 +12903,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.2833157321431</v>
+        <v>148.3327963113603</v>
       </c>
       <c r="AB3" t="n">
-        <v>164.5769391100211</v>
+        <v>202.9554758942348</v>
       </c>
       <c r="AC3" t="n">
-        <v>148.8699470265909</v>
+        <v>183.5856901247462</v>
       </c>
       <c r="AD3" t="n">
-        <v>120283.3157321431</v>
+        <v>148332.7963113603</v>
       </c>
       <c r="AE3" t="n">
-        <v>164576.9391100211</v>
+        <v>202955.4758942348</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.660605460192889e-06</v>
+        <v>6.744418598038827e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.195987654320987</v>
       </c>
       <c r="AH3" t="n">
-        <v>148869.947026591</v>
+        <v>183585.6901247462</v>
       </c>
     </row>
   </sheetData>
@@ -13200,28 +13200,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>141.0280081814827</v>
+        <v>179.7977242905201</v>
       </c>
       <c r="AB2" t="n">
-        <v>192.9607425104333</v>
+        <v>246.0071784899524</v>
       </c>
       <c r="AC2" t="n">
-        <v>174.5448400673951</v>
+        <v>222.5285986481863</v>
       </c>
       <c r="AD2" t="n">
-        <v>141028.0081814827</v>
+        <v>179797.7242905201</v>
       </c>
       <c r="AE2" t="n">
-        <v>192960.7425104333</v>
+        <v>246007.1784899524</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.269790932493601e-06</v>
+        <v>5.841242877179727e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.67824074074074</v>
       </c>
       <c r="AH2" t="n">
-        <v>174544.8400673951</v>
+        <v>222528.5986481863</v>
       </c>
     </row>
     <row r="3">
@@ -13306,28 +13306,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>125.6295349295345</v>
+        <v>154.6855763062207</v>
       </c>
       <c r="AB3" t="n">
-        <v>171.8918720744334</v>
+        <v>211.6476297480718</v>
       </c>
       <c r="AC3" t="n">
-        <v>155.486753055455</v>
+        <v>191.4482770142903</v>
       </c>
       <c r="AD3" t="n">
-        <v>125629.5349295345</v>
+        <v>154685.5763062207</v>
       </c>
       <c r="AE3" t="n">
-        <v>171891.8720744334</v>
+        <v>211647.6297480717</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.628692512949581e-06</v>
+        <v>6.482394358644097e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.018518518518518</v>
       </c>
       <c r="AH3" t="n">
-        <v>155486.753055455</v>
+        <v>191448.2770142902</v>
       </c>
     </row>
   </sheetData>
